--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ccl25-Ccr10.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ccl25-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.65449250730528</v>
+        <v>2.835473666666667</v>
       </c>
       <c r="H2">
-        <v>2.65449250730528</v>
+        <v>8.506421</v>
       </c>
       <c r="I2">
-        <v>0.11786302944177</v>
+        <v>0.1177775131860914</v>
       </c>
       <c r="J2">
-        <v>0.11786302944177</v>
+        <v>0.1254491357467524</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.73583781452416</v>
+        <v>0.5706193333333334</v>
       </c>
       <c r="N2">
-        <v>1.73583781452416</v>
+        <v>1.711858</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2443278446591134</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.3265937887468804</v>
       </c>
       <c r="Q2">
-        <v>4.607768472551554</v>
+        <v>1.617976093357556</v>
       </c>
       <c r="R2">
-        <v>4.607768472551554</v>
+        <v>14.561784840218</v>
       </c>
       <c r="S2">
-        <v>0.11786302944177</v>
+        <v>0.02877632594606803</v>
       </c>
       <c r="T2">
-        <v>0.11786302944177</v>
+        <v>0.04097090853855358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -596,57 +596,57 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.73901064430296</v>
+        <v>2.835473666666667</v>
       </c>
       <c r="H3">
-        <v>6.73901064430296</v>
+        <v>8.506421</v>
       </c>
       <c r="I3">
-        <v>0.2992211158223227</v>
+        <v>0.1177775131860914</v>
       </c>
       <c r="J3">
-        <v>0.2992211158223227</v>
+        <v>0.1254491357467524</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.73583781452416</v>
+        <v>1.7648465</v>
       </c>
       <c r="N3">
-        <v>1.73583781452416</v>
+        <v>3.529693</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7556721553408867</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6734062112531195</v>
       </c>
       <c r="Q3">
-        <v>11.6978295088619</v>
+        <v>5.004175776458833</v>
       </c>
       <c r="R3">
-        <v>11.6978295088619</v>
+        <v>30.025054658753</v>
       </c>
       <c r="S3">
-        <v>0.2992211158223227</v>
+        <v>0.08900118724002343</v>
       </c>
       <c r="T3">
-        <v>0.2992211158223227</v>
+        <v>0.08447822720819881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.9568525313809</v>
+        <v>6.985602333333333</v>
       </c>
       <c r="H4">
-        <v>4.9568525313809</v>
+        <v>20.956807</v>
       </c>
       <c r="I4">
-        <v>0.220090904094411</v>
+        <v>0.2901620567311298</v>
       </c>
       <c r="J4">
-        <v>0.220090904094411</v>
+        <v>0.3090622161966227</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.73583781452416</v>
+        <v>0.5706193333333334</v>
       </c>
       <c r="N4">
-        <v>1.73583781452416</v>
+        <v>1.711858</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2443278446591134</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.3265937887468804</v>
       </c>
       <c r="Q4">
-        <v>8.604292064990771</v>
+        <v>3.986119746378445</v>
       </c>
       <c r="R4">
-        <v>8.604292064990771</v>
+        <v>35.87507771740601</v>
       </c>
       <c r="S4">
-        <v>0.220090904094411</v>
+        <v>0.07089466992297232</v>
       </c>
       <c r="T4">
-        <v>0.220090904094411</v>
+        <v>0.1009378001461625</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.15198553113226</v>
+        <v>6.985602333333333</v>
       </c>
       <c r="H5">
-        <v>4.15198553113226</v>
+        <v>20.956807</v>
       </c>
       <c r="I5">
-        <v>0.1843537292159947</v>
+        <v>0.2901620567311298</v>
       </c>
       <c r="J5">
-        <v>0.1843537292159947</v>
+        <v>0.3090622161966227</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.73583781452416</v>
+        <v>1.7648465</v>
       </c>
       <c r="N5">
-        <v>1.73583781452416</v>
+        <v>3.529693</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.7556721553408867</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.6734062112531195</v>
       </c>
       <c r="Q5">
-        <v>7.207173490296555</v>
+        <v>12.32851582837517</v>
       </c>
       <c r="R5">
-        <v>7.207173490296555</v>
+        <v>73.971094970251</v>
       </c>
       <c r="S5">
-        <v>0.1843537292159947</v>
+        <v>0.2192673868081575</v>
       </c>
       <c r="T5">
-        <v>0.1843537292159947</v>
+        <v>0.2081244160504602</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,365 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5.277146666666667</v>
+      </c>
+      <c r="H6">
+        <v>15.83144</v>
+      </c>
+      <c r="I6">
+        <v>0.2191976664868592</v>
+      </c>
+      <c r="J6">
+        <v>0.2334754493842435</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.5706193333333334</v>
+      </c>
+      <c r="N6">
+        <v>1.711858</v>
+      </c>
+      <c r="O6">
+        <v>0.2443278446591134</v>
+      </c>
+      <c r="P6">
+        <v>0.3265937887468804</v>
+      </c>
+      <c r="Q6">
+        <v>3.011241912835556</v>
+      </c>
+      <c r="R6">
+        <v>27.10117721552</v>
+      </c>
+      <c r="S6">
+        <v>0.05355609340704148</v>
+      </c>
+      <c r="T6">
+        <v>0.07625163159378061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>4.01950062108043</v>
-      </c>
-      <c r="H6">
-        <v>4.01950062108043</v>
-      </c>
-      <c r="I6">
-        <v>0.1784712214255015</v>
-      </c>
-      <c r="J6">
-        <v>0.1784712214255015</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.73583781452416</v>
-      </c>
-      <c r="N6">
-        <v>1.73583781452416</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>6.977201173574756</v>
-      </c>
-      <c r="R6">
-        <v>6.977201173574756</v>
-      </c>
-      <c r="S6">
-        <v>0.1784712214255015</v>
-      </c>
-      <c r="T6">
-        <v>0.1784712214255015</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.277146666666667</v>
+      </c>
+      <c r="H7">
+        <v>15.83144</v>
+      </c>
+      <c r="I7">
+        <v>0.2191976664868592</v>
+      </c>
+      <c r="J7">
+        <v>0.2334754493842435</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.7648465</v>
+      </c>
+      <c r="N7">
+        <v>3.529693</v>
+      </c>
+      <c r="O7">
+        <v>0.7556721553408867</v>
+      </c>
+      <c r="P7">
+        <v>0.6734062112531195</v>
+      </c>
+      <c r="Q7">
+        <v>9.313353824653333</v>
+      </c>
+      <c r="R7">
+        <v>55.88012294792</v>
+      </c>
+      <c r="S7">
+        <v>0.1656415730798178</v>
+      </c>
+      <c r="T7">
+        <v>0.1572238177904629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.559845333333333</v>
+      </c>
+      <c r="H8">
+        <v>13.679536</v>
+      </c>
+      <c r="I8">
+        <v>0.1894030088117685</v>
+      </c>
+      <c r="J8">
+        <v>0.2017400700737227</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.5706193333333334</v>
+      </c>
+      <c r="N8">
+        <v>1.711858</v>
+      </c>
+      <c r="O8">
+        <v>0.2443278446591134</v>
+      </c>
+      <c r="P8">
+        <v>0.3265937887468804</v>
+      </c>
+      <c r="Q8">
+        <v>2.601935904209777</v>
+      </c>
+      <c r="R8">
+        <v>23.417423137888</v>
+      </c>
+      <c r="S8">
+        <v>0.04627642891493045</v>
+      </c>
+      <c r="T8">
+        <v>0.06588705382743826</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.559845333333333</v>
+      </c>
+      <c r="H9">
+        <v>13.679536</v>
+      </c>
+      <c r="I9">
+        <v>0.1894030088117685</v>
+      </c>
+      <c r="J9">
+        <v>0.2017400700737227</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.7648465</v>
+      </c>
+      <c r="N9">
+        <v>3.529693</v>
+      </c>
+      <c r="O9">
+        <v>0.7556721553408867</v>
+      </c>
+      <c r="P9">
+        <v>0.6734062112531195</v>
+      </c>
+      <c r="Q9">
+        <v>8.047427077074666</v>
+      </c>
+      <c r="R9">
+        <v>48.28456246244799</v>
+      </c>
+      <c r="S9">
+        <v>0.1431265798968381</v>
+      </c>
+      <c r="T9">
+        <v>0.1358530162462845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.4167625</v>
+      </c>
+      <c r="H10">
+        <v>8.833525</v>
+      </c>
+      <c r="I10">
+        <v>0.183459754784151</v>
+      </c>
+      <c r="J10">
+        <v>0.1302731285986587</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.5706193333333334</v>
+      </c>
+      <c r="N10">
+        <v>1.711858</v>
+      </c>
+      <c r="O10">
+        <v>0.2443278446591134</v>
+      </c>
+      <c r="P10">
+        <v>0.3265937887468804</v>
+      </c>
+      <c r="Q10">
+        <v>2.520290073241667</v>
+      </c>
+      <c r="R10">
+        <v>15.12174043945</v>
+      </c>
+      <c r="S10">
+        <v>0.04482432646810108</v>
+      </c>
+      <c r="T10">
+        <v>0.04254639464094553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.4167625</v>
+      </c>
+      <c r="H11">
+        <v>8.833525</v>
+      </c>
+      <c r="I11">
+        <v>0.183459754784151</v>
+      </c>
+      <c r="J11">
+        <v>0.1302731285986587</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.7648465</v>
+      </c>
+      <c r="N11">
+        <v>3.529693</v>
+      </c>
+      <c r="O11">
+        <v>0.7556721553408867</v>
+      </c>
+      <c r="P11">
+        <v>0.6734062112531195</v>
+      </c>
+      <c r="Q11">
+        <v>7.79490783945625</v>
+      </c>
+      <c r="R11">
+        <v>31.179631357825</v>
+      </c>
+      <c r="S11">
+        <v>0.13863542831605</v>
+      </c>
+      <c r="T11">
+        <v>0.08772673395771317</v>
       </c>
     </row>
   </sheetData>
